--- a/other_files/Database_Cpsv_ap_Tables&Data.xlsx
+++ b/other_files/Database_Cpsv_ap_Tables&Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ΠΛΣ_ΔΙΠΛΩΜΑΤΙΚΗ_ΕΡΓΑΣΙΑ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760" tabRatio="808"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700" tabRatio="863"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="10" r:id="rId1"/>
@@ -63,7 +58,7 @@
     <sheet name="PS_CriterionRequirement" sheetId="57" r:id="rId49"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AnswerForDoc_ex_Ev!$A$3:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">AnswerForDoc_ex_Ev!$A$3:$B$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Contact Point'!$A$3:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Rule!$A$3:$D$54</definedName>
     <definedName name="_GoBack" localSheetId="22">#REF!</definedName>
@@ -73,7 +68,7 @@
     <definedName name="_GoBack" localSheetId="23">#REF!</definedName>
     <definedName name="_GoBack" localSheetId="21">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -83,7 +78,7 @@
     <author>Pantelis</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5754" uniqueCount="4139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="4142">
   <si>
     <t>Table:</t>
   </si>
@@ -12682,11 +12677,20 @@
   <si>
     <t>Δήμος Αλίμου, Ηλιούπολης, Αργυρούπολης, Γλυφάδας, Βούλας, Βάρης, Βουλιαγμένης, Ελληνικού</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ενήλικος </t>
+  </si>
+  <si>
+    <t>Ανήλικος &lt;12</t>
+  </si>
+  <si>
+    <t>Ανήλικος &gt;12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12901,7 +12905,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -13059,12 +13063,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
     <cellStyle name="Κανονικό 2" xfId="1"/>
     <cellStyle name="Κανονικό 3" xfId="2"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14733,15 +14741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:colOff>933450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14752,7 +14760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="76200"/>
+          <a:off x="2724150" y="57150"/>
           <a:ext cx="762000" cy="240665"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -17736,7 +17744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17778,7 +17786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17813,7 +17821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18029,7 +18037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19702,12 +19710,12 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C13" sqref="C13"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19895,7 +19903,7 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>3897</v>
       </c>
@@ -19907,7 +19915,7 @@
       </c>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>3898</v>
       </c>
@@ -19919,7 +19927,7 @@
       </c>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>3899</v>
       </c>
@@ -19931,7 +19939,7 @@
       </c>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>3900</v>
       </c>
@@ -19943,7 +19951,7 @@
       </c>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>3901</v>
       </c>
@@ -19955,7 +19963,7 @@
       </c>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>3902</v>
       </c>
@@ -19966,7 +19974,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>3903</v>
       </c>
@@ -19977,7 +19985,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>3904</v>
       </c>
@@ -19987,8 +19995,11 @@
       <c r="C24" s="31" t="s">
         <v>3964</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E24" s="75" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>3454</v>
       </c>
@@ -19998,8 +20009,11 @@
       <c r="C25" s="31" t="s">
         <v>3965</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E25" s="75" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>3905</v>
       </c>
@@ -20009,8 +20023,11 @@
       <c r="C26" s="31" t="s">
         <v>3966</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E26" s="75" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>3906</v>
       </c>
@@ -20021,7 +20038,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>3907</v>
       </c>
@@ -20032,7 +20049,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3908</v>
       </c>
@@ -20043,7 +20060,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>3909</v>
       </c>
@@ -20054,7 +20071,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>3910</v>
       </c>
@@ -20065,7 +20082,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>3911</v>
       </c>
@@ -23739,7 +23756,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C13" sqref="C13"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24447,12 +24464,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C13" sqref="C13"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24512,7 +24529,7 @@
         <v>3982</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -24523,28 +24540,35 @@
         <v>3982</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>3998</v>
+        <v>3988</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>3982</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>4013</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
@@ -24641,6 +24665,10 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24651,10 +24679,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -24687,114 +24715,114 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>4016</v>
+        <v>4004</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>4019</v>
+        <v>4004</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>4021</v>
+        <v>4004</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>4023</v>
+        <v>4004</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>4013</v>
+        <v>4004</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>4021</v>
+        <v>4004</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>4023</v>
+        <v>4004</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>4013</v>
+        <v>4006</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>4016</v>
+        <v>4006</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>4019</v>
+        <v>4006</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>4006</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>3887</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>4008</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B17" s="52" t="s">
         <v>3887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>4011</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>3888</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -24805,169 +24833,169 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>4011</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>4006</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>4011</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>4004</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>4006</v>
-      </c>
       <c r="B24" s="52" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
-        <v>4008</v>
+        <v>4011</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>4019</v>
+        <v>4011</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>4046</v>
+        <v>4011</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>4013</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>4021</v>
+        <v>4013</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
-        <v>4023</v>
+        <v>4013</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>3892</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
-        <v>4046</v>
+        <v>4013</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>3892</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>4008</v>
+        <v>4013</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>3894</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
         <v>4016</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
-        <v>4019</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>4021</v>
-      </c>
       <c r="B36" s="52" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>4029</v>
+        <v>4016</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>4038</v>
+        <v>4016</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>4041</v>
+        <v>4016</v>
       </c>
       <c r="B39" s="52" t="s">
         <v>3894</v>
@@ -24975,213 +25003,213 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>4008</v>
+        <v>4016</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>4013</v>
+        <v>4016</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
-        <v>4023</v>
+        <v>4016</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>4029</v>
+        <v>4016</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>4038</v>
+        <v>4016</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>4041</v>
+        <v>4019</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>4004</v>
+        <v>4019</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
-        <v>4006</v>
+        <v>4019</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>4011</v>
+        <v>4019</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>4029</v>
+        <v>4019</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>4038</v>
+        <v>4019</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>4041</v>
+        <v>4019</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>4032</v>
+        <v>4021</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>3897</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
-        <v>4038</v>
+        <v>4021</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>3897</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>4041</v>
+        <v>4021</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>3897</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
-        <v>4016</v>
+        <v>4021</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>4034</v>
+        <v>4021</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>4036</v>
+        <v>4021</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
-        <v>4041</v>
+        <v>4023</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>4044</v>
+        <v>4023</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
-        <v>4004</v>
+        <v>4023</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
-        <v>4011</v>
+        <v>4023</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>4004</v>
+        <v>4023</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
-        <v>4006</v>
+        <v>4023</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>3901</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>4008</v>
+        <v>4023</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
         <v>4027</v>
       </c>
@@ -25189,267 +25217,249 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>4013</v>
+        <v>4029</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>3903</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>4016</v>
+        <v>4029</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
-        <v>4021</v>
+        <v>4032</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
-        <v>4023</v>
+        <v>4032</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
-        <v>4048</v>
+        <v>4034</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
-        <v>4013</v>
+        <v>4034</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
-        <v>4019</v>
+        <v>4036</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="52" t="s">
-        <v>4021</v>
+        <v>4038</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
-        <v>4023</v>
+        <v>4038</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="52" t="s">
-        <v>4048</v>
+        <v>4038</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="52" t="s">
-        <v>4013</v>
+        <v>4038</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>3905</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="52" t="s">
-        <v>4016</v>
+        <v>4041</v>
       </c>
       <c r="B79" s="52" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="52" t="s">
-        <v>4048</v>
+        <v>4041</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="52" t="s">
-        <v>4052</v>
+        <v>4041</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
-        <v>4056</v>
+        <v>4041</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="52" t="s">
-        <v>4044</v>
+        <v>4041</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>3908</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="52" t="s">
-        <v>4016</v>
+        <v>4044</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
-        <v>4019</v>
+        <v>4044</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="52" t="s">
-        <v>4021</v>
+        <v>4046</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="52" t="s">
-        <v>4023</v>
+        <v>4046</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="52" t="s">
-        <v>4060</v>
+        <v>4048</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="52" t="s">
-        <v>4032</v>
+        <v>4048</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>4064</v>
+        <v>4048</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>4004</v>
+        <v>4052</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
-        <v>4006</v>
+        <v>4056</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>3912</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="52" t="s">
-        <v>4008</v>
+        <v>4060</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="52" t="s">
-        <v>4068</v>
+        <v>4064</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
-        <v>4016</v>
+        <v>4068</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="52" t="s">
-        <v>4019</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="52" t="s">
-        <v>4034</v>
-      </c>
-      <c r="B97" s="52" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="76"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="75"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="75"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B97">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A0003"/>
-        <filter val="A0006"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:B95"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
